--- a/organismo/Asociación de Municipalidades del Valle del Maipo.xlsx
+++ b/organismo/Asociación de Municipalidades del Valle del Maipo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Tipo cargo</t>
+          <t>tipo_calificacionp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>tipo_calificacionp</t>
+          <t>remuneracionbruta_mensual</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>remuneracionbruta_mensual</t>
+          <t>remuliquida_mensual</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>remuliquida_mensual</t>
+          <t>tipo_pago</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>num_cuotas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Nombres2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO2</t>
         </is>
@@ -440,16 +445,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Junio</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Luis Tercero</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -464,33 +469,220 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SECRETARIO EJECUTIVO</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Ingeniero de Ejecución en Gestión Pública</t>
-        </is>
+          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>888889</v>
       </c>
       <c r="I2" t="n">
-        <v>900000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>733950</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>LUIS TERCERO</t>
-        </is>
-      </c>
+        <v>800000</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Luis Tercero Céspedes Inostroza</t>
+          <t>LUIS</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>LUIS TERCERO CESPEDES INOSTROZA</t>
+          <t>Luis Céspedes Inostroza</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>LUIS CESPEDES INOSTROZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades del Valle del Maipo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Céspedes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Inostroza</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>888889</v>
+      </c>
+      <c r="I3" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>LUIS</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Luis Céspedes Inostroza</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>LUIS CESPEDES INOSTROZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades del Valle del Maipo</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Céspedes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Inostroza</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>888889</v>
+      </c>
+      <c r="I4" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>LUIS</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Luis Céspedes Inostroza</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>LUIS CESPEDES INOSTROZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades del Valle del Maipo</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Céspedes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Inostroza</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>888889</v>
+      </c>
+      <c r="I5" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>LUIS</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Luis Céspedes Inostroza</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>LUIS CESPEDES INOSTROZA</t>
         </is>
       </c>
     </row>

--- a/organismo/Asociación de Municipalidades del Valle del Maipo.xlsx
+++ b/organismo/Asociación de Municipalidades del Valle del Maipo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,40 +399,45 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Tipo cargo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>tipo_calificacionp</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>remuneracionbruta_mensual</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>remuliquida_mensual</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tipo_pago</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>num_cuotas</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Nombres2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO2</t>
         </is>
@@ -445,16 +450,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Junio</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Luis Tercero</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,34 +474,35 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>888889</v>
+          <t>SECRETARIO EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ingeniero de Ejecución en Gestión Pública</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v>800000</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Pago mensual</t>
-        </is>
+        <v>900000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>733950</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>LUIS</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Luis Céspedes Inostroza</t>
+          <t>LUIS TERCERO</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>LUIS CESPEDES INOSTROZA</t>
+          <t>Luis Tercero Céspedes Inostroza</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>LUIS TERCERO CESPEDES INOSTROZA</t>
         </is>
       </c>
     </row>
@@ -529,34 +535,35 @@
           <t>Inostroza</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>888889</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>800000</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Pago mensual</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Luis Céspedes Inostroza</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>LUIS CESPEDES INOSTROZA</t>
         </is>
@@ -591,34 +598,35 @@
           <t>Inostroza</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>888889</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>800000</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Pago mensual</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Luis Céspedes Inostroza</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>LUIS CESPEDES INOSTROZA</t>
         </is>
@@ -653,34 +661,98 @@
           <t>Inostroza</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>888889</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>800000</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Pago mensual</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Luis Céspedes Inostroza</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>LUIS CESPEDES INOSTROZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades del Valle del Maipo</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Céspedes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Inostroza</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>888889</v>
+      </c>
+      <c r="J6" t="n">
+        <v>800000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>LUIS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Luis Céspedes Inostroza</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>LUIS CESPEDES INOSTROZA</t>
         </is>

--- a/organismo/Asociación de Municipalidades del Valle del Maipo.xlsx
+++ b/organismo/Asociación de Municipalidades del Valle del Maipo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,31 +417,6 @@
           <t>remuliquida_mensual</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tipo_pago</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>num_cuotas</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Nombres2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRECOMPLETO</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRECOMPLETO2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,279 +457,14 @@
           <t>Ingeniero de Ejecución en Gestión Pública</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>900000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>733950</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>LUIS TERCERO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Luis Tercero Céspedes Inostroza</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>LUIS TERCERO CESPEDES INOSTROZA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Asociación de Municipalidades del Valle del Maipo</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Céspedes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Inostroza</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>888889</v>
-      </c>
-      <c r="J3" t="n">
-        <v>800000</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Pago mensual</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>LUIS</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Luis Céspedes Inostroza</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>LUIS CESPEDES INOSTROZA</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Asociación de Municipalidades del Valle del Maipo</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Céspedes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Inostroza</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>888889</v>
-      </c>
-      <c r="J4" t="n">
-        <v>800000</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Pago mensual</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>LUIS</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Luis Céspedes Inostroza</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>LUIS CESPEDES INOSTROZA</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Asociación de Municipalidades del Valle del Maipo</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Céspedes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Inostroza</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>888889</v>
-      </c>
-      <c r="J5" t="n">
-        <v>800000</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Pago mensual</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>LUIS</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Luis Céspedes Inostroza</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>LUIS CESPEDES INOSTROZA</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Asociación de Municipalidades del Valle del Maipo</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Céspedes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Inostroza</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Egresado de Ingeniería en Ejecución en Gestión Pública</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>888889</v>
-      </c>
-      <c r="J6" t="n">
-        <v>800000</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Pago mensual</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>LUIS</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Luis Céspedes Inostroza</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>LUIS CESPEDES INOSTROZA</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>900000,0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>733950,0</t>
         </is>
       </c>
     </row>
